--- a/Oro_Loma_1.xlsx
+++ b/Oro_Loma_1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC383406-1641-49EE-B9D1-11A76F645863}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE083E0-7D60-42FF-943F-3C1824077026}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Compartment</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Shoots</t>
+  </si>
+  <si>
+    <t>res.Zwn_1</t>
+  </si>
+  <si>
+    <t>res.Zwi_1</t>
   </si>
 </sst>
 </file>
@@ -952,21 +958,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +1041,7 @@
       </c>
       <c r="G2" s="3">
         <f>1-M2</f>
-        <v>0.99999400000000005</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0.4</v>
@@ -1050,7 +1056,7 @@
         <v>2000</v>
       </c>
       <c r="M2" s="3">
-        <v>6.0000000000000002E-6</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>2605</v>
@@ -1059,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1234,7 +1240,7 @@
       </c>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1363,9 +1369,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
